--- a/问题点.xlsx
+++ b/问题点.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="测出问题" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>问题点1</t>
   </si>
@@ -41,13 +41,20 @@
     <t>问题点2</t>
   </si>
   <si>
-    <t>为解决</t>
+    <t>未解决</t>
   </si>
   <si>
     <t>解决方案</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>后台推送一个websocket的消息给前端，消息体【</t>
     </r>
     <r>
@@ -91,6 +98,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF212529"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"from":"0","type":"buyCoinStart","content":"</t>
     </r>
     <r>
@@ -123,6 +136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF212529"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"from":"11","type":"buyCoinPayed","content":"</t>
     </r>
     <r>
@@ -230,16 +249,61 @@
     <t>问题点4</t>
   </si>
   <si>
+    <t>同问题点2一起修改，前端接受服务器消息推送，进行弹窗提醒</t>
+  </si>
+  <si>
     <t>问题点5</t>
   </si>
   <si>
+    <t>回答</t>
+  </si>
+  <si>
+    <t>原因买单已超时，但是页面没刷新还是提交了撤销，导致撤销2次，数据重复</t>
+  </si>
+  <si>
+    <t>解决方法</t>
+  </si>
+  <si>
+    <t>同问题点2一起修改，前端接受服务器消息推送,如果撤单发生，则弹窗提醒</t>
+  </si>
+  <si>
+    <t>并且服务器撤销时判断状态，避免重复撤单</t>
+  </si>
+  <si>
     <t>问题点6</t>
   </si>
   <si>
+    <t>同问题5一起解决了。重复撤单的缘故</t>
+  </si>
+  <si>
     <t>问题点7</t>
   </si>
   <si>
+    <t>第一张图，前端需要修改</t>
+  </si>
+  <si>
+    <t>第二张图回答内容</t>
+  </si>
+  <si>
+    <t>卖家扣币是在挂单的时候就已经扣了，买家买的时候不需要重复扣币</t>
+  </si>
+  <si>
+    <t>问题点8</t>
+  </si>
+  <si>
     <t>增加了一个【买币驳回】的按钮，把这笔买卖取消</t>
+  </si>
+  <si>
+    <t>问题8</t>
+  </si>
+  <si>
+    <t>更新微信收款码的时候，会带有支付宝的图片信息。</t>
+  </si>
+  <si>
+    <t>更新支付宝收款码的时候，会带微信图片的信息。</t>
+  </si>
+  <si>
+    <t>前端改成当前更新哪个，就只传哪个的值</t>
   </si>
 </sst>
 </file>
@@ -281,6 +345,13 @@
       <color rgb="FF212529"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -427,13 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF212529"/>
       <name val="宋体"/>
@@ -766,133 +830,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,9 +967,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -918,7 +979,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,18 +1434,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1394,175 +1458,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="25603200"/>
-          <a:ext cx="4114800" cy="4145280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2644140" y="20848320"/>
-          <a:ext cx="4099560" cy="4137660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6911340" y="20848320"/>
-          <a:ext cx="1943100" cy="4274820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="205740" y="30175200"/>
-          <a:ext cx="1935480" cy="4389120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="205740" y="35112960"/>
+          <a:off x="205740" y="39502080"/>
           <a:ext cx="4114800" cy="3093720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1597,7 +1493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,13 +1518,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257810</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1639,14 +1535,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5082540" y="35478720"/>
+          <a:off x="5082540" y="39867840"/>
           <a:ext cx="6353810" cy="2354580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1681,7 +1577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1723,7 +1619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1732,6 +1628,216 @@
         <a:xfrm>
           <a:off x="4526280" y="4244340"/>
           <a:ext cx="7040880" cy="2880360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="25420320"/>
+          <a:ext cx="4099560" cy="4137660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4472940" y="25420320"/>
+          <a:ext cx="1943100" cy="4274820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="29992320"/>
+          <a:ext cx="1935480" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="34747200"/>
+          <a:ext cx="4114800" cy="4145280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="43159680"/>
+          <a:ext cx="9902825" cy="5365115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,10 +2103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A267" sqref="$A267:$XFD269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2014,7 +2120,7 @@
       </c>
     </row>
     <row r="2" spans="10:10">
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2027,12 +2133,12 @@
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
@@ -2040,7 +2146,7 @@
       </c>
     </row>
     <row r="22" spans="9:9">
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2058,7 +2164,7 @@
       </c>
     </row>
     <row r="60" spans="9:9">
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2068,17 +2174,17 @@
       </c>
     </row>
     <row r="62" spans="9:9">
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="9:9">
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="9:9">
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2088,57 +2194,57 @@
       </c>
     </row>
     <row r="66" spans="9:9">
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="9:9">
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="9:9">
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="9:9">
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="9:9">
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="9:9">
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="9:9">
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="9:9">
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="9:9">
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="75" spans="9:9">
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="9:9">
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2148,12 +2254,12 @@
       </c>
     </row>
     <row r="78" spans="9:9">
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="79" spans="9:9">
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2163,7 +2269,7 @@
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="8:8">
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2172,35 +2278,204 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="H114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="8:17">
+      <c r="H115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="8:13">
+      <c r="H116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="M139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+    </row>
+    <row r="140" spans="13:13">
+      <c r="M140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="10:10">
+    <row r="141" spans="13:13">
+      <c r="M141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="13:13">
+      <c r="M142" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="13:20">
+      <c r="M143" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="144" spans="13:13">
+      <c r="M144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="6:10">
+      <c r="F166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="10:13">
+      <c r="J192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+    </row>
+    <row r="193" spans="10:13">
       <c r="J193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="10:10">
-      <c r="J194" t="s">
-        <v>36</v>
-      </c>
+    <row r="218" spans="10:10">
+      <c r="J218" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
